--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>key</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Nivel: {level}</t>
+  </si>
+  <si>
+    <t>COINS</t>
+  </si>
+  <si>
+    <t>Coins: {coins}</t>
+  </si>
+  <si>
+    <t>Moedas: {coins}</t>
   </si>
 </sst>
 </file>
@@ -512,6 +521,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -82,7 +82,7 @@
     <t>Language:</t>
   </si>
   <si>
-    <t>Indioma:</t>
+    <t>Idioma:</t>
   </si>
   <si>
     <t>FULLSCREEN</t>
